--- a/data/deathmapdata.xlsx
+++ b/data/deathmapdata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C188"/>
+  <dimension ref="A1:C190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2673</v>
+        <v>7238</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2408</v>
+        <v>2797</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3315</v>
+        <v>5864</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>628</v>
+        <v>1653</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>66872</v>
+        <v>115633</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4209</v>
+        <v>5675</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>910</v>
+        <v>1507</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10351</v>
+        <v>11143</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4650</v>
+        <v>6720</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>212</v>
+        <v>590</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>674</v>
+        <v>1391</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>11833</v>
+        <v>27737</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2612</v>
+        <v>4353</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>24483</v>
+        <v>25732</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>323</v>
+        <v>457</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>100</v>
+        <v>161</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>13151</v>
+        <v>18811</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>8790</v>
+        <v>11078</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>734</v>
+        <v>2386</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>419114</v>
+        <v>602099</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>16886</v>
+        <v>22102</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>162</v>
+        <v>203</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3210</v>
+        <v>18255</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>231</v>
+        <v>347</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>114</v>
+        <v>2584</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1152</v>
+        <v>1550</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24523</v>
+        <v>28474</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>27004</v>
+        <v>37583</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>4846</v>
+        <v>4849</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>76867</v>
+        <v>126759</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>148</v>
+        <v>219</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>772</v>
+        <v>1089</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3365</v>
+        <v>6771</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>291</v>
+        <v>673</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>7388</v>
+        <v>8847</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>713</v>
+        <v>7994</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>332</v>
+        <v>560</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>29608</v>
+        <v>30524</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2496</v>
+        <v>2678</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>3517</v>
+        <v>4082</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>19061</v>
+        <v>32899</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>13779</v>
+        <v>17846</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2146</v>
+        <v>3435</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1193</v>
+        <v>1409</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>671</v>
+        <v>1232</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>3840</v>
+        <v>6141</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>3</v>
+        <v>663</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>922</v>
+        <v>1112</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>106262</v>
+        <v>118111</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>142</v>
+        <v>209</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>175</v>
+        <v>339</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>4245</v>
+        <v>9370</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>84659</v>
+        <v>94530</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>783</v>
+        <v>1158</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>10910</v>
+        <v>15289</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>191</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>7695</v>
+        <v>14204</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>149</v>
+        <v>385</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>67</v>
+        <v>141</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>314</v>
+        <v>857</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>263</v>
+        <v>649</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1567,7 +1567,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>5585</v>
+        <v>10083</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>28403</v>
+        <v>30341</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>238270</v>
+        <v>451814</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>46663</v>
+        <v>142848</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>74241</v>
+        <v>123498</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>15702</v>
+        <v>22681</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>4918</v>
+        <v>5306</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>6375</v>
+        <v>7972</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>122470</v>
+        <v>131461</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>801</v>
+        <v>2059</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>10712</v>
+        <v>18063</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>9047</v>
+        <v>10847</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>3369</v>
+        <v>16583</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>2865</v>
+        <v>5202</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1788,1468 +1788,1498 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Korea, South</t>
+          <t>Kiribati</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1865</v>
+        <v>0</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>KOR</t>
+          <t>KIR</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Kosovo</t>
+          <t>Korea, South</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2207</v>
+        <v>2626</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>KSV</t>
+          <t>KOR</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Kuwait</t>
+          <t>Kosovo</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1628</v>
+        <v>2973</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>KWT</t>
+          <t>KSV</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Kyrgyzstan</t>
+          <t>Kuwait</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1643</v>
+        <v>2455</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>KGZ</t>
+          <t>KWT</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Laos</t>
+          <t>Kyrgyzstan</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>2627</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>KGZ</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Laos</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>2197</v>
+        <v>36</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>LVA</t>
+          <t>LAO</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Lebanon</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>7436</v>
+        <v>2857</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>LBN</t>
+          <t>LVA</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Lesotho</t>
+          <t>Lebanon</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>319</v>
+        <v>8406</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>LSO</t>
+          <t>LBN</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Liberia</t>
+          <t>Lesotho</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>85</v>
+        <v>655</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>LBR</t>
+          <t>LSO</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Libya</t>
+          <t>Liberia</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>3063</v>
+        <v>286</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>LBY</t>
+          <t>LBR</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Liechtenstein</t>
+          <t>Libya</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>58</v>
+        <v>4849</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>LIE</t>
+          <t>LBY</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Liechtenstein</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>4019</v>
+        <v>60</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>LTU</t>
+          <t>LIE</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>801</v>
+        <v>5349</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>LUX</t>
+          <t>LTU</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Madagascar</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>701</v>
+        <v>838</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>LUX</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Malawi</t>
+          <t>Madagascar</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1152</v>
+        <v>960</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>MWI</t>
+          <t>MDG</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Malawi</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>1632</v>
+        <v>2292</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>MYS</t>
+          <t>MWI</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Maldives</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>82</v>
+        <v>27681</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>MDV</t>
+          <t>MYS</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Mali</t>
+          <t>Maldives</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>497</v>
+        <v>237</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>MLI</t>
+          <t>MDV</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Mali</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>417</v>
+        <v>555</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>MLT</t>
+          <t>MLI</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Marshall Islands</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>459</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>MHL</t>
+          <t>MLT</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Mauritania</t>
+          <t>Marshall Islands</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>456</v>
+        <v>0</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>MRT</t>
+          <t>MHL</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Mauritius</t>
+          <t>Mauritania</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>17</v>
+        <v>786</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>MUS</t>
+          <t>MRT</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Mauritius</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>218657</v>
+        <v>123</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>MEX</t>
+          <t>MUS</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Moldova</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>5929</v>
+        <v>283574</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>MDA</t>
+          <t>MEX</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Moldova</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>32</v>
+        <v>7137</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>MCO</t>
+          <t>MDA</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Mongolia</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>160</v>
+        <v>35</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>MNG</t>
+          <t>MCO</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Montenegro</t>
+          <t>Mongolia</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1533</v>
+        <v>1497</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>MNE</t>
+          <t>MNG</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Montenegro</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>9057</v>
+        <v>2010</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>MAR</t>
+          <t>MNE</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>820</v>
+        <v>14520</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>MAR</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Namibia</t>
+          <t>Mozambique</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>682</v>
+        <v>1924</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>MOZ</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Nepal</t>
+          <t>Namibia</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>3579</v>
+        <v>3529</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>NPL</t>
+          <t>NAM</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Nepal</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>17547</v>
+        <v>11269</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>NPL</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>26</v>
+        <v>18660</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>NZL</t>
+          <t>NLD</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>New Zealand</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>183</v>
+        <v>28</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>NIC</t>
+          <t>NZL</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Niger</t>
+          <t>Nicaragua</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>NIC</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Niger</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>2065</v>
+        <v>204</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>NGA</t>
+          <t>NER</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>767</v>
+        <v>2761</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>NOR</t>
+          <t>NGA</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Oman</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>2083</v>
+        <v>884</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>OMN</t>
+          <t>NOR</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Oman</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>18797</v>
+        <v>4103</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>PAK</t>
+          <t>OMN</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>6258</v>
+        <v>28228</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>PAN</t>
+          <t>PAK</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Papua New Guinea</t>
+          <t>Palau</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>PNG</t>
+          <t>PLW</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>6974</v>
+        <v>7275</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>PRY</t>
+          <t>PAN</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Papua New Guinea</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>62976</v>
+        <v>266</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>PER</t>
+          <t>PNG</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>18099</v>
+        <v>16208</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>PHL</t>
+          <t>PRY</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>69445</v>
+        <v>199746</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>POL</t>
+          <t>PER</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>16989</v>
+        <v>40221</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>PRT</t>
+          <t>PHL</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Qatar</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>496</v>
+        <v>76018</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>QAT</t>
+          <t>POL</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>28799</v>
+        <v>18071</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>ROU</t>
+          <t>PRT</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Qatar</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>110735</v>
+        <v>607</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>RUS</t>
+          <t>QAT</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Rwanda</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>338</v>
+        <v>40765</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>RWA</t>
+          <t>ROU</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Saint Kitts and Nevis</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0</v>
+        <v>216403</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>KNA</t>
+          <t>RUS</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Saint Lucia</t>
+          <t>Rwanda</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>75</v>
+        <v>1313</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>LCA</t>
+          <t>RWA</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Saint Vincent and the Grenadines</t>
+          <t>Saint Kitts and Nevis</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>VCT</t>
+          <t>KNA</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Samoa</t>
+          <t>Saint Lucia</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>WSM</t>
+          <t>LCA</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>San Marino</t>
+          <t>Saint Vincent and the Grenadines</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>SMR</t>
+          <t>VCT</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Sao Tome and Principe</t>
+          <t>Samoa</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>STP</t>
+          <t>WSM</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>San Marino</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>7045</v>
+        <v>91</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>SAU</t>
+          <t>SMR</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>Sao Tome and Principe</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>1116</v>
+        <v>56</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>SEN</t>
+          <t>STP</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>6519</v>
+        <v>8755</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>SRB</t>
+          <t>SAU</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Seychelles</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>28</v>
+        <v>1869</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>SYC</t>
+          <t>SEN</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Sierra Leone</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>79</v>
+        <v>8946</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>SLE</t>
+          <t>SRB</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Seychelles</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>SGP</t>
+          <t>SYC</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Sierra Leone</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>11946</v>
+        <v>121</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>SVK</t>
+          <t>SLE</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>4285</v>
+        <v>207</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>SVN</t>
+          <t>SGP</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Solomon Islands</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0</v>
+        <v>12791</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>SLB</t>
+          <t>SVK</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Somalia</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>745</v>
+        <v>4627</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>SOM</t>
+          <t>SVN</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Solomon Islands</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>54687</v>
+        <v>0</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>ZAF</t>
+          <t>SLB</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>South Sudan</t>
+          <t>Somalia</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>115</v>
+        <v>1180</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>SSD</t>
+          <t>SOM</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>78792</v>
+        <v>88506</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>ESP</t>
+          <t>ZAF</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Sri Lanka</t>
+          <t>South Sudan</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>764</v>
+        <v>130</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>LKA</t>
+          <t>SSD</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Sudan</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>2365</v>
+        <v>86917</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>SDN</t>
+          <t>ESP</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Suriname</t>
+          <t>Sri Lanka</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>214</v>
+        <v>13429</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>SUR</t>
+          <t>LKA</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Sudan</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>14173</v>
+        <v>2976</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>SWE</t>
+          <t>SDN</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Suriname</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>10702</v>
+        <v>1000</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>CHE</t>
+          <t>SUR</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Syria</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>1639</v>
+        <v>14926</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>SYR</t>
+          <t>SWE</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Taiwan*</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>12</v>
+        <v>11152</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>TWN</t>
+          <t>CHE</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Tajikistan</t>
+          <t>Syria</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>90</v>
+        <v>2375</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>TJK</t>
+          <t>SYR</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Tanzania</t>
+          <t>Taiwan*</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>21</v>
+        <v>846</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>TZA</t>
+          <t>TWN</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Tajikistan</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>363</v>
+        <v>125</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>THA</t>
+          <t>TJK</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Timor-Leste</t>
+          <t>Tanzania</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>4</v>
+        <v>724</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>TLS</t>
+          <t>TZA</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Togo</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>124</v>
+        <v>18029</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>TGO</t>
+          <t>THA</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Trinidad and Tobago</t>
+          <t>Timor-Leste</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>196</v>
+        <v>119</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>TTO</t>
+          <t>TLS</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Togo</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>11277</v>
+        <v>237</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>TUN</t>
+          <t>TGO</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Trinidad and Tobago</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>42465</v>
+        <v>1573</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>TUR</t>
+          <t>TTO</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>Tunisia</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>580901</v>
+        <v>25053</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>TUN</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Uganda</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>346</v>
+        <v>67044</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TUR</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>47717</v>
+        <v>721563</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>UKR</t>
+          <t>USA</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Uganda</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>1607</v>
+        <v>3179</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>ARE</t>
+          <t>UGA</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>127858</v>
+        <v>63847</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>UKR</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>3032</v>
+        <v>2117</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>URY</t>
+          <t>ARE</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Uzbekistan</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>660</v>
+        <v>138647</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>UZB</t>
+          <t>GBR</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Vanuatu</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>1</v>
+        <v>6065</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>VUT</t>
+          <t>URY</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Venezuela</t>
+          <t>Uzbekistan</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>2263</v>
+        <v>1280</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>VEN</t>
+          <t>UZB</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Vanuatu</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>VNM</t>
+          <t>VUT</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>West Bank and Gaza</t>
+          <t>Venezuela</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>3338</v>
+        <v>4681</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>WBG</t>
+          <t>VEN</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Yemen</t>
+          <t>Vietnam</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>1269</v>
+        <v>20950</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>YEM</t>
+          <t>VNM</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Zambia</t>
+          <t>West Bank and Gaza</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>1256</v>
+        <v>4547</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>ZMB</t>
+          <t>WBG</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
+          <t>Yemen</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>1793</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>YEM</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Zambia</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>3657</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>ZMB</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
           <t>Zimbabwe</t>
         </is>
       </c>
-      <c r="B188" t="n">
-        <v>1576</v>
-      </c>
-      <c r="C188" t="inlineStr">
+      <c r="B190" t="n">
+        <v>4655</v>
+      </c>
+      <c r="C190" t="inlineStr">
         <is>
           <t>ZWE</t>
         </is>

--- a/data/deathmapdata.xlsx
+++ b/data/deathmapdata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C190"/>
+  <dimension ref="A1:C191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7238</v>
+        <v>7284</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2797</v>
+        <v>2940</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5864</v>
+        <v>5931</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1653</v>
+        <v>1716</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>115633</v>
+        <v>116029</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5675</v>
+        <v>6491</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1507</v>
+        <v>1781</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11143</v>
+        <v>11400</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6720</v>
+        <v>7153</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>590</v>
+        <v>643</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>27737</v>
+        <v>27880</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4353</v>
+        <v>4679</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>25732</v>
+        <v>26083</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>457</v>
+        <v>499</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>18811</v>
+        <v>18936</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>11078</v>
+        <v>11685</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2386</v>
+        <v>2407</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>602099</v>
+        <v>608235</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>22102</v>
+        <v>24589</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>18255</v>
+        <v>18744</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2584</v>
+        <v>2807</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1550</v>
+        <v>1731</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>28474</v>
+        <v>29149</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>37583</v>
+        <v>37790</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>126759</v>
+        <v>127380</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>219</v>
+        <v>278</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1089</v>
+        <v>1098</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>6771</v>
+        <v>7111</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>673</v>
+        <v>696</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>8847</v>
+        <v>9332</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>7994</v>
+        <v>8250</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>560</v>
+        <v>576</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>30524</v>
+        <v>30840</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2678</v>
+        <v>2721</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>4082</v>
+        <v>4144</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>32899</v>
+        <v>32958</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>17846</v>
+        <v>18832</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>3435</v>
+        <v>3654</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1409</v>
+        <v>1563</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1232</v>
+        <v>1242</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>6141</v>
+        <v>6494</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>663</v>
+        <v>674</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1112</v>
+        <v>1176</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>118111</v>
+        <v>118758</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>209</v>
+        <v>249</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>9370</v>
+        <v>10185</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>94530</v>
+        <v>96196</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1158</v>
+        <v>1182</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>15289</v>
+        <v>16109</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>14204</v>
+        <v>15222</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>857</v>
+        <v>928</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>649</v>
+        <v>677</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1567,7 +1567,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>10083</v>
+        <v>10284</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>30341</v>
+        <v>30994</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>451814</v>
+        <v>459652</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>142848</v>
+        <v>143481</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>123498</v>
+        <v>126763</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>22681</v>
+        <v>23248</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>5306</v>
+        <v>5492</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>7972</v>
+        <v>8109</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>131461</v>
+        <v>132224</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>2059</v>
+        <v>2249</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>18063</v>
+        <v>18297</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>10847</v>
+        <v>11077</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>16583</v>
+        <v>17201</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>5202</v>
+        <v>5282</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2626</v>
+        <v>2916</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>2973</v>
+        <v>2978</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>2455</v>
+        <v>2462</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>2627</v>
+        <v>2676</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>2857</v>
+        <v>3357</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>8406</v>
+        <v>8522</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>4849</v>
+        <v>5157</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>5349</v>
+        <v>5971</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -1987,7 +1987,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>838</v>
+        <v>848</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>2292</v>
+        <v>2302</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>27681</v>
+        <v>29091</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>555</v>
+        <v>569</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>786</v>
+        <v>799</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>123</v>
+        <v>196</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>283574</v>
+        <v>288733</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>7137</v>
+        <v>7912</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1497</v>
+        <v>1767</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>2010</v>
+        <v>2119</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>14520</v>
+        <v>14689</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>1924</v>
+        <v>1932</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>3529</v>
+        <v>3557</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>11269</v>
+        <v>11434</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>18660</v>
+        <v>18914</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>2761</v>
+        <v>2900</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>884</v>
+        <v>919</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>4103</v>
+        <v>4112</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>28228</v>
+        <v>28496</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>7275</v>
+        <v>7320</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>266</v>
+        <v>392</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>16208</v>
+        <v>16256</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>199746</v>
+        <v>200326</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>40221</v>
+        <v>43586</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>76018</v>
+        <v>77145</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>18071</v>
+        <v>18180</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>40765</v>
+        <v>49115</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>216403</v>
+        <v>237619</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>1313</v>
+        <v>1332</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>8755</v>
+        <v>8799</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>1869</v>
+        <v>1879</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>8946</v>
+        <v>10139</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>207</v>
+        <v>442</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>12791</v>
+        <v>13112</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>4627</v>
+        <v>4784</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>1180</v>
+        <v>1208</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>88506</v>
+        <v>89220</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>86917</v>
+        <v>87462</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>13429</v>
+        <v>13791</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>2976</v>
+        <v>3099</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>1000</v>
+        <v>1098</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>14926</v>
+        <v>15043</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>11152</v>
+        <v>11261</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>2375</v>
+        <v>2590</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>18029</v>
+        <v>19394</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -3033,253 +3033,268 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Trinidad and Tobago</t>
+          <t>Tonga</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>1573</v>
+        <v>0</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>TTO</t>
+          <t>TON</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Trinidad and Tobago</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>25053</v>
+        <v>1729</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>TUN</t>
+          <t>TTO</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Tunisia</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>67044</v>
+        <v>25254</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>TUR</t>
+          <t>TUN</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>721563</v>
+        <v>71298</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>TUR</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Uganda</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>3179</v>
+        <v>750423</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>USA</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Uganda</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>63847</v>
+        <v>3219</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>UKR</t>
+          <t>UGA</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>2117</v>
+        <v>73888</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>ARE</t>
+          <t>UKR</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>138647</v>
+        <v>2137</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>ARE</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>6065</v>
+        <v>141607</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>URY</t>
+          <t>GBR</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Uzbekistan</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>1280</v>
+        <v>6080</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>UZB</t>
+          <t>URY</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Vanuatu</t>
+          <t>Uzbekistan</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>1</v>
+        <v>1329</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>VUT</t>
+          <t>UZB</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Venezuela</t>
+          <t>Vanuatu</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>4681</v>
+        <v>1</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>VEN</t>
+          <t>VUT</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Venezuela</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>20950</v>
+        <v>4925</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>VNM</t>
+          <t>VEN</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>West Bank and Gaza</t>
+          <t>Vietnam</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>4547</v>
+        <v>22283</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>WBG</t>
+          <t>VNM</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Yemen</t>
+          <t>West Bank and Gaza</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>1793</v>
+        <v>4694</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>YEM</t>
+          <t>WBG</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Zambia</t>
+          <t>Yemen</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>3657</v>
+        <v>1897</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>ZMB</t>
+          <t>YEM</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
+          <t>Zambia</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>3661</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>ZMB</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
           <t>Zimbabwe</t>
         </is>
       </c>
-      <c r="B190" t="n">
-        <v>4655</v>
-      </c>
-      <c r="C190" t="inlineStr">
+      <c r="B191" t="n">
+        <v>4684</v>
+      </c>
+      <c r="C191" t="inlineStr">
         <is>
           <t>ZWE</t>
         </is>

--- a/data/deathmapdata.xlsx
+++ b/data/deathmapdata.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7284</v>
+        <v>7365</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2940</v>
+        <v>3035</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5931</v>
+        <v>6021</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1716</v>
+        <v>1730</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>116029</v>
+        <v>116377</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6491</v>
+        <v>7278</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1781</v>
+        <v>1948</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11400</v>
+        <v>12015</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7153</v>
+        <v>7624</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>643</v>
+        <v>671</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>27880</v>
+        <v>27953</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>164</v>
+        <v>210</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4679</v>
+        <v>4948</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>26083</v>
+        <v>26568</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>499</v>
+        <v>558</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>18936</v>
+        <v>19062</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>11685</v>
+        <v>12219</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2407</v>
+        <v>2416</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>608235</v>
+        <v>612659</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>24589</v>
+        <v>27253</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>221</v>
+        <v>265</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>18744</v>
+        <v>19025</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2807</v>
+        <v>2900</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1731</v>
+        <v>1770</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29149</v>
+        <v>29550</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>37790</v>
+        <v>38117</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>127380</v>
+        <v>128093</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>278</v>
+        <v>339</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1098</v>
+        <v>1104</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>7111</v>
+        <v>7251</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>9332</v>
+        <v>10303</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>8250</v>
+        <v>8295</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>576</v>
+        <v>590</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>30840</v>
+        <v>32079</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2721</v>
+        <v>2822</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>4144</v>
+        <v>4186</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>32958</v>
+        <v>33121</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>18832</v>
+        <v>19933</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>3654</v>
+        <v>3753</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1563</v>
+        <v>1735</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1242</v>
+        <v>1248</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>6494</v>
+        <v>6682</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>674</v>
+        <v>695</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1176</v>
+        <v>1249</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>118758</v>
+        <v>119424</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>10185</v>
+        <v>11498</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>96196</v>
+        <v>99130</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1182</v>
+        <v>1208</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>16109</v>
+        <v>17313</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>15222</v>
+        <v>15840</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>928</v>
+        <v>976</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>677</v>
+        <v>711</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1567,7 +1567,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>10284</v>
+        <v>10387</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>30994</v>
+        <v>32780</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>459652</v>
+        <v>465911</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>143481</v>
+        <v>143739</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>126763</v>
+        <v>128956</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>23248</v>
+        <v>23665</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>5492</v>
+        <v>5609</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>8109</v>
+        <v>8176</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>132224</v>
+        <v>133177</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>2249</v>
+        <v>2358</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>18297</v>
+        <v>18343</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>11077</v>
+        <v>11361</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>17201</v>
+        <v>17625</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>5282</v>
+        <v>5328</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2916</v>
+        <v>3298</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>2978</v>
+        <v>2982</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>2462</v>
+        <v>2464</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>2676</v>
+        <v>2723</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>3357</v>
+        <v>3950</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>8522</v>
+        <v>8645</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>5157</v>
+        <v>5380</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>5971</v>
+        <v>6521</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -1987,7 +1987,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>848</v>
+        <v>862</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>2302</v>
+        <v>2304</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>29091</v>
+        <v>30002</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>569</v>
+        <v>592</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>196</v>
+        <v>240</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>288733</v>
+        <v>292372</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>7912</v>
+        <v>8834</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1767</v>
+        <v>1948</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>2119</v>
+        <v>2245</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>14689</v>
+        <v>14761</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>1932</v>
+        <v>1938</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>3557</v>
+        <v>3569</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>11434</v>
+        <v>11496</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>18914</v>
+        <v>19411</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>2900</v>
+        <v>2974</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>919</v>
+        <v>999</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>4112</v>
+        <v>4113</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>28496</v>
+        <v>28663</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>7320</v>
+        <v>7353</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>392</v>
+        <v>486</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>16256</v>
+        <v>16354</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>200326</v>
+        <v>200866</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>43586</v>
+        <v>47074</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>77145</v>
+        <v>80822</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>18180</v>
+        <v>18321</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>49115</v>
+        <v>54959</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>237619</v>
+        <v>259107</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>1332</v>
+        <v>1340</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>8799</v>
+        <v>8824</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>1879</v>
+        <v>1883</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>10139</v>
+        <v>11225</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>442</v>
+        <v>662</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>13112</v>
+        <v>13861</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>4784</v>
+        <v>5063</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>1208</v>
+        <v>1324</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>89220</v>
+        <v>89574</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>87462</v>
+        <v>87810</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>13791</v>
+        <v>14127</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>1098</v>
+        <v>1149</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>15043</v>
+        <v>15110</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>11261</v>
+        <v>11382</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>2590</v>
+        <v>2704</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>19394</v>
+        <v>20387</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>1729</v>
+        <v>1967</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>25254</v>
+        <v>25344</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>71298</v>
+        <v>75042</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>750423</v>
+        <v>771118</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>3219</v>
+        <v>3256</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>73888</v>
+        <v>86260</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>2137</v>
+        <v>2144</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>141607</v>
+        <v>144369</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>6080</v>
+        <v>6115</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>1329</v>
+        <v>1375</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>4925</v>
+        <v>5079</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>22283</v>
+        <v>23761</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>4694</v>
+        <v>4770</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>1897</v>
+        <v>1938</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>3661</v>
+        <v>3667</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>4684</v>
+        <v>4699</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>

--- a/data/deathmapdata.xlsx
+++ b/data/deathmapdata.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7365</v>
+        <v>7325</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3035</v>
+        <v>3132</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6021</v>
+        <v>6137</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1730</v>
+        <v>1737</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>116377</v>
+        <v>116760</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7278</v>
+        <v>7788</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1948</v>
+        <v>2104</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12015</v>
+        <v>13143</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7624</v>
+        <v>8070</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>671</v>
+        <v>708</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>27953</v>
+        <v>28022</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>210</v>
+        <v>251</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4948</v>
+        <v>5261</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>26568</v>
+        <v>27504</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>558</v>
+        <v>586</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19062</v>
+        <v>19305</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>12219</v>
+        <v>12918</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2416</v>
+        <v>2421</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>612659</v>
+        <v>616457</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>27253</v>
+        <v>29486</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19025</v>
+        <v>19177</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2900</v>
+        <v>2982</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1770</v>
+        <v>1823</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29550</v>
+        <v>29963</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>38117</v>
+        <v>38600</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>128093</v>
+        <v>129056</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>339</v>
+        <v>359</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1104</v>
+        <v>1118</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>7251</v>
+        <v>7332</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>10303</v>
+        <v>11574</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>8295</v>
+        <v>8313</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>590</v>
+        <v>608</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>32079</v>
+        <v>34377</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2822</v>
+        <v>3018</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>4186</v>
+        <v>4218</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>33121</v>
+        <v>33498</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>19933</v>
+        <v>21015</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>3753</v>
+        <v>3793</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1735</v>
+        <v>1848</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>6682</v>
+        <v>6829</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1249</v>
+        <v>1421</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>119424</v>
+        <v>121368</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>11498</v>
+        <v>12695</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>99130</v>
+        <v>105642</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1208</v>
+        <v>1239</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>17313</v>
+        <v>19157</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>15840</v>
+        <v>16036</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>976</v>
+        <v>1016</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>711</v>
+        <v>758</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1567,7 +1567,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>10387</v>
+        <v>10415</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>32780</v>
+        <v>36429</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>465911</v>
+        <v>475434</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>143739</v>
+        <v>143929</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>128956</v>
+        <v>130661</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>23665</v>
+        <v>23965</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>5609</v>
+        <v>5788</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>8176</v>
+        <v>8210</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>133177</v>
+        <v>134765</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>2358</v>
+        <v>2424</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>18343</v>
+        <v>18369</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>11361</v>
+        <v>11941</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>17625</v>
+        <v>18005</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>5328</v>
+        <v>5346</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>3298</v>
+        <v>4253</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>2982</v>
+        <v>2987</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>2464</v>
+        <v>2466</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>2723</v>
+        <v>2768</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>132</v>
+        <v>236</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>3950</v>
+        <v>4366</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>8645</v>
+        <v>8836</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>5380</v>
+        <v>5540</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>6521</v>
+        <v>6956</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -1987,7 +1987,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>862</v>
+        <v>890</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>964</v>
+        <v>980</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>2304</v>
+        <v>2307</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>30002</v>
+        <v>30862</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>592</v>
+        <v>628</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>818</v>
+        <v>849</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>292372</v>
+        <v>296385</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>8834</v>
+        <v>9354</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1948</v>
+        <v>2033</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>2245</v>
+        <v>2349</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>14761</v>
+        <v>14796</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>1938</v>
+        <v>1942</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>3569</v>
+        <v>3577</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>11496</v>
+        <v>11553</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>19411</v>
+        <v>20530</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>2974</v>
+        <v>2981</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>999</v>
+        <v>1136</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>28663</v>
+        <v>28830</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>7353</v>
+        <v>7386</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>486</v>
+        <v>573</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>16354</v>
+        <v>16500</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>200866</v>
+        <v>201733</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>47074</v>
+        <v>50096</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>80822</v>
+        <v>88414</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>18321</v>
+        <v>18645</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>54959</v>
+        <v>57531</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>259107</v>
+        <v>282713</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>1340</v>
+        <v>1344</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>8824</v>
+        <v>8852</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>1883</v>
+        <v>1886</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>11225</v>
+        <v>12148</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>662</v>
+        <v>789</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>13861</v>
+        <v>15304</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>5063</v>
+        <v>5394</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>1324</v>
+        <v>1333</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>89574</v>
+        <v>90116</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>87810</v>
+        <v>88381</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>14127</v>
+        <v>14595</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>3099</v>
+        <v>3208</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>1149</v>
+        <v>1176</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>15110</v>
+        <v>15191</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>11382</v>
+        <v>11748</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>2704</v>
+        <v>2809</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>727</v>
+        <v>734</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>20387</v>
+        <v>21171</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>1967</v>
+        <v>2383</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>25344</v>
+        <v>25427</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>75042</v>
+        <v>78969</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>771118</v>
+        <v>797179</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>3256</v>
+        <v>3267</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>86260</v>
+        <v>96427</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>2144</v>
+        <v>2151</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>144369</v>
+        <v>146844</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>6115</v>
+        <v>6142</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>1375</v>
+        <v>1434</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>5079</v>
+        <v>5234</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>23761</v>
+        <v>27611</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>4770</v>
+        <v>4830</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>1938</v>
+        <v>1968</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>3667</v>
+        <v>3669</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>4699</v>
+        <v>4735</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
